--- a/test/Calendly_data.xlsx
+++ b/test/Calendly_data.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">calendly.com/manaslaud</t>
+  </si>
   <si>
     <t xml:space="preserve">calendly.com/manas-laud-onehash</t>
   </si>
@@ -61,7 +64,6 @@
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,12 +108,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -132,7 +138,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -145,6 +151,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
